--- a/crawler/resultados.xlsx
+++ b/crawler/resultados.xlsx
@@ -544,22 +544,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Casco SHAFT SH-582SP_EVO Adventure Time</t>
+          <t>Casco SHAFT SH-526 SP EVO Bonecrush</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/casco-integral-shaft-sh-582sp_evo-adventure-time/p</t>
+          <t>/casco-integral-shaft-sh-526-sp-evo-bonecrush/p</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$ 382.500</t>
+          <t>$ 331.500</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 390.000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,12 +571,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Casco SHAFT SH-582SP_EVO Samurai Jack</t>
+          <t>Casco SHAFT SH-582SP_EVO Adventure Time</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/casco-integral-shaft-sh-582sp_evo-samurai-jack/p</t>
+          <t>/casco-integral-shaft-sh-582sp_evo-adventure-time/p</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -598,22 +598,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Casco SHAFT SH-582SP_EVO Johny Bravo</t>
+          <t>Casco SHAFT SH-598GTR Leviatan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/casco-integral-shaft-sh-582sp_evo-johny-bravo/p</t>
+          <t>/casco-integral-shaft-sh-598gtr-leviatan/p</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$ 382.500</t>
+          <t>$ 348.500</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 410.000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,81 +625,81 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Casco ICH 503 ED SPECIAL Trick</t>
+          <t>Casco SHAFT SH-582SP_EVO Samurai Jack</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/casco-integral-ich-503-ed-special-trick/p</t>
+          <t>/casco-integral-shaft-sh-582sp_evo-samurai-jack/p</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$ 209.000</t>
+          <t>$ 382.500</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$ 220.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-5%</t>
+          <t>-15%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Casco LS2 FF808 STREAM II Solid</t>
+          <t>Casco SHAFT SH-526 SP EVO Strafter</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/casco-integral-ls2-ff808-stream-ii-solid/p</t>
+          <t>/casco-integral-shaft-sh-526-sp-evo-strafter/p</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>$ 314.500</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$ 370.000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-15%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Casco SHAFT SH-560 EVO Solid</t>
+          <t>Casco SHAFT SH-526 SP EVO Papyrus</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/casco-integral-shaft-sh-560-evo-solid/p</t>
+          <t>/casco-integral-shaft-sh-526-sp-evo-papyrus/p</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$ 380.000</t>
+          <t>$ 314.500</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$ 370.000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-15%</t>
         </is>
       </c>
     </row>
